--- a/medicine/Pharmacie/Pregnane_X_receptor/Pregnane_X_receptor.xlsx
+++ b/medicine/Pharmacie/Pregnane_X_receptor/Pregnane_X_receptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pregnane X receptor (PXR), également connu sous le nom de steroid and xenobiotic sensing nuclear receptor (ou SXR), est une protéine de la superfamille des récepteurs nucléaires, famille des récepteurs orphelins. Son rôle est associé à l'expression des gènes impliqués dans les phénomènes de détoxification cellulaire, dont notamment celui du cytochrome P450[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pregnane X receptor (PXR), également connu sous le nom de steroid and xenobiotic sensing nuclear receptor (ou SXR), est une protéine de la superfamille des récepteurs nucléaires, famille des récepteurs orphelins. Son rôle est associé à l'expression des gènes impliqués dans les phénomènes de détoxification cellulaire, dont notamment celui du cytochrome P450.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,6 +608,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
